--- a/Retailers Ledger/MAHENDIA.xlsx
+++ b/Retailers Ledger/MAHENDIA.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
   <si>
     <t>SINGH COMMUNICATION-(660315658)</t>
   </si>
@@ -114,11 +114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,30 +135,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,9 +165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +182,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,37 +206,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,8 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +250,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -271,13 +278,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +497,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,15 +535,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +570,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +602,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,130 +620,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -778,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1357,13 +1357,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1471,6 +1471,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="10">
+        <v>44177</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1040</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -1484,13 +1499,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1553,6 +1568,37 @@
         <v>8</v>
       </c>
       <c r="E4" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>44176</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>44177</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>2000</v>
       </c>
     </row>
@@ -1693,7 +1739,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1701,8 +1747,8 @@
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
@@ -1725,20 +1771,20 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1749,11 +1795,11 @@
       <c r="B4" s="1">
         <v>3120</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>3000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1763,11 +1809,11 @@
       <c r="B5" s="3">
         <v>3120</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
         <v>6000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1777,11 +1823,11 @@
       <c r="B6" s="3">
         <v>3120</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>9000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,11 +1837,11 @@
       <c r="C7" s="3">
         <v>6000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
         <v>3000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2102,10 +2148,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2304,12 +2350,25 @@
       <c r="B14" s="3">
         <v>5200</v>
       </c>
-      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10">
+        <v>44176</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2531,13 +2590,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2637,6 +2696,20 @@
       </c>
       <c r="E7" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="6">
+        <v>44176</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Retailers Ledger/MAHENDIA.xlsx
+++ b/Retailers Ledger/MAHENDIA.xlsx
@@ -9,11 +9,11 @@
   <sheets>
     <sheet name="SINGH COMMUNICATION-(660315658)" sheetId="1" r:id="rId1"/>
     <sheet name="BAJRANG MOBILE -(661591707)" sheetId="3" r:id="rId2"/>
-    <sheet name="Maa Bhindwashni Mob-(660587310)" sheetId="4" r:id="rId3"/>
-    <sheet name="SUMAN PHONE GHAR-(660315655)" sheetId="2" r:id="rId4"/>
-    <sheet name="GUPTA PAN DUKAN-(661063901)" sheetId="5" r:id="rId5"/>
-    <sheet name="SUBODH PAN-(661562286)" sheetId="6" r:id="rId6"/>
-    <sheet name="ASHU COMMUNICATION-(661025161" sheetId="8" r:id="rId7"/>
+    <sheet name="ASHU COMMUNICATION-(661025161" sheetId="8" r:id="rId3"/>
+    <sheet name="Maa Bhindwashni Mob-(660587310)" sheetId="4" r:id="rId4"/>
+    <sheet name="SUMAN PHONE GHAR-(660315655)" sheetId="2" r:id="rId5"/>
+    <sheet name="GUPTA PAN DUKAN-(661063901)" sheetId="5" r:id="rId6"/>
+    <sheet name="SUBODH PAN-(661562286)" sheetId="6" r:id="rId7"/>
     <sheet name="ANIL PAN DUKAN-(661705269)" sheetId="9" r:id="rId8"/>
     <sheet name="MS RIYA ENTERPRISES-(661562283)" sheetId="10" r:id="rId9"/>
     <sheet name="MUKESH PAN-(661613669)" sheetId="11" r:id="rId10"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="27">
   <si>
     <t>SINGH COMMUNICATION-(660315658)</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Signature</t>
   </si>
   <si>
+    <t>ASHU COMMUNICATION-ARWAL-(661025161)</t>
+  </si>
+  <si>
     <t>Maa Bhindwashni Mobile Center-(660587310)</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>SUBODH PAN-(661562286)</t>
-  </si>
-  <si>
-    <t>ASHU COMMUNICATION-ARWAL-(661025161)</t>
   </si>
   <si>
     <t>ANIL PAN DUKAN-(661705269)</t>
@@ -114,11 +114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,36 +135,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -180,6 +151,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -188,11 +189,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,40 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,8 +242,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,14 +274,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,19 +306,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,79 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +432,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,61 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,9 +502,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,21 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -550,35 +570,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +588,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,134 +620,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,7 +766,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -778,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1118,7 +1121,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1130,33 +1133,33 @@
     <col min="5" max="5" width="16.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="16380" width="9.14285714285714" style="1"/>
-    <col min="16381" max="16384" width="9.14285714285714" style="15"/>
+    <col min="16381" max="16384" width="9.14285714285714" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1169,7 +1172,7 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44167</v>
       </c>
       <c r="B4" s="3">
@@ -1178,12 +1181,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>3000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44169</v>
       </c>
       <c r="C5" s="3">
@@ -1192,12 +1196,13 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E24" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44170</v>
       </c>
       <c r="B6" s="3">
@@ -1206,12 +1211,13 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44170</v>
       </c>
       <c r="B7" s="3">
@@ -1220,12 +1226,13 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44170</v>
       </c>
       <c r="B8" s="3">
@@ -1234,12 +1241,13 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44171</v>
       </c>
       <c r="B9" s="3">
@@ -1248,64 +1256,138 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" spans="1:5">
-      <c r="A10" s="10">
+    <row r="10" s="16" customFormat="1" spans="1:5">
+      <c r="A10" s="11">
         <v>44172</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>5200</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1" spans="1:5">
-      <c r="A11" s="10">
+    <row r="11" s="16" customFormat="1" spans="1:5">
+      <c r="A11" s="11">
         <v>44172</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <v>6000</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="12" s="15" customFormat="1" spans="1:5">
-      <c r="A12" s="10">
+    <row r="12" s="16" customFormat="1" spans="1:5">
+      <c r="A12" s="11">
         <v>44174</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>5000</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
-    <row r="22" s="3" customFormat="1"/>
-    <row r="23" s="3" customFormat="1"/>
-    <row r="24" s="3" customFormat="1"/>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="11">
+        <v>44177</v>
+      </c>
+      <c r="B13" s="16">
+        <v>5200</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
     <row r="25" s="3" customFormat="1"/>
     <row r="26" s="3" customFormat="1"/>
     <row r="27" s="3" customFormat="1"/>
@@ -1357,13 +1439,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1376,47 +1458,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44169</v>
       </c>
       <c r="B4" s="3">
@@ -1425,12 +1507,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44169</v>
       </c>
       <c r="C5" s="3">
@@ -1439,12 +1522,13 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44173</v>
       </c>
       <c r="C6" s="3">
@@ -1453,12 +1537,13 @@
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44174</v>
       </c>
       <c r="B7" s="3">
@@ -1467,23 +1552,123 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44177</v>
       </c>
       <c r="B8" s="3">
         <v>1040</v>
       </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
+        <v>44177</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1499,13 +1684,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1518,47 +1703,47 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44174</v>
       </c>
       <c r="B4" s="3">
@@ -1567,12 +1752,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44176</v>
       </c>
       <c r="C5" s="3">
@@ -1581,7 +1767,8 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E26" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>-3000</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1589,7 +1776,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44177</v>
       </c>
       <c r="B6" s="3">
@@ -1598,8 +1785,129 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1615,13 +1923,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1677,7 +1985,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -1691,7 +2000,8 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1705,7 +2015,8 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -1719,8 +2030,105 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1736,13 +2144,13 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -1798,7 +2206,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>3000</v>
       </c>
     </row>
@@ -1812,7 +2221,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>6000</v>
       </c>
     </row>
@@ -1826,7 +2236,8 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
@@ -1840,8 +2251,114 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>44177</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1857,10 +2374,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1875,46 +2392,46 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44167</v>
       </c>
       <c r="B4" s="3">
@@ -1923,12 +2440,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44169</v>
       </c>
       <c r="C5" s="3">
@@ -1937,12 +2455,13 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44170</v>
       </c>
       <c r="B6" s="3">
@@ -1951,12 +2470,13 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44171</v>
       </c>
       <c r="C7" s="3">
@@ -1965,12 +2485,13 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44172</v>
       </c>
       <c r="B8" s="3">
@@ -1979,12 +2500,13 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44173</v>
       </c>
       <c r="C9" s="3">
@@ -1993,12 +2515,13 @@
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>44174</v>
       </c>
       <c r="C10" s="3">
@@ -2007,8 +2530,87 @@
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2024,13 +2626,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2041,98 +2643,187 @@
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
-        <v>44168</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3120</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
+    <row r="4" spans="1:5">
+      <c r="A4" s="11">
+        <v>44177</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1040</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
-        <v>44169</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10">
-        <v>44174</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3120</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10">
-        <v>44175</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
+    <row r="5" spans="5:5">
+      <c r="E5" s="7" t="str">
+        <f t="shared" ref="E5:E26" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2148,10 +2839,234 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="11">
+        <v>44168</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="11">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11">
+        <v>44174</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11">
+        <v>44175</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2166,45 +3081,45 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44168</v>
       </c>
       <c r="B4" s="3">
@@ -2213,12 +3128,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44169</v>
       </c>
       <c r="B5" s="3">
@@ -2227,12 +3143,13 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E29" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>3000</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44169</v>
       </c>
       <c r="B6" s="3">
@@ -2241,12 +3158,13 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44169</v>
       </c>
       <c r="B7" s="3">
@@ -2255,12 +3173,13 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44169</v>
       </c>
       <c r="C8" s="3">
@@ -2269,12 +3188,13 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44170</v>
       </c>
       <c r="B9" s="3">
@@ -2283,12 +3203,13 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>44171</v>
       </c>
       <c r="B10" s="3">
@@ -2297,12 +3218,13 @@
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>44171</v>
       </c>
       <c r="C11" s="3">
@@ -2311,12 +3233,13 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>44173</v>
       </c>
       <c r="B12" s="3">
@@ -2325,12 +3248,13 @@
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>44174</v>
       </c>
       <c r="C13" s="3">
@@ -2339,12 +3263,13 @@
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:5">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>44175</v>
       </c>
       <c r="B14" s="3">
@@ -2353,12 +3278,13 @@
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>44176</v>
       </c>
       <c r="C15" s="3">
@@ -2367,8 +3293,102 @@
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11">
+        <v>44177</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2381,13 +3401,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2402,31 +3422,31 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2439,7 +3459,7 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44167</v>
       </c>
       <c r="B4" s="3">
@@ -2448,12 +3468,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44168</v>
       </c>
       <c r="C5" s="3">
@@ -2462,12 +3483,13 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44169</v>
       </c>
       <c r="B6" s="3">
@@ -2476,12 +3498,13 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44169</v>
       </c>
       <c r="B7" s="3">
@@ -2490,12 +3513,13 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44169</v>
       </c>
       <c r="C8" s="3">
@@ -2504,12 +3528,13 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44171</v>
       </c>
       <c r="B9" s="3">
@@ -2518,12 +3543,13 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>44171</v>
       </c>
       <c r="C10" s="3">
@@ -2532,12 +3558,13 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>44173</v>
       </c>
       <c r="C11" s="3">
@@ -2546,12 +3573,13 @@
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>44175</v>
       </c>
       <c r="B12" s="3">
@@ -2560,12 +3588,13 @@
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>44175</v>
       </c>
       <c r="C13" s="3">
@@ -2574,8 +3603,69 @@
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2587,16 +3677,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2609,7 +3699,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2652,7 +3742,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -2666,7 +3757,8 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2680,7 +3772,8 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -2694,7 +3787,8 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,73 +3802,117 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>44177</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>44177</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2790,10 +3928,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2809,45 +3947,45 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>44169</v>
       </c>
       <c r="B4" s="3">
@@ -2856,12 +3994,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>44169</v>
       </c>
       <c r="C5" s="3">
@@ -2870,12 +4009,13 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>44170</v>
       </c>
       <c r="B6" s="3">
@@ -2884,12 +4024,13 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>44171</v>
       </c>
       <c r="B7" s="3">
@@ -2898,12 +4039,13 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>44173</v>
       </c>
       <c r="C8" s="3">
@@ -2912,12 +4054,13 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>44175</v>
       </c>
       <c r="B9" s="3">
@@ -2926,8 +4069,93 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2943,61 +4171,175 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="E4" sqref="E4:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" s="7" t="str">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="7" t="str">
+        <f t="shared" ref="E5:E22" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
